--- a/StructureDefinition-lmdi-patient.xlsx
+++ b/StructureDefinition-lmdi-patient.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3013" uniqueCount="554">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-08</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Informasjon om pasienten</t>
+    <t>Pasienten som har fått rekvirert eller administrert legemiddel</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -639,7 +639,7 @@
     <t>Patient.identifier.system</t>
   </si>
   <si>
-    <t>The identification of the Fødselsnummer</t>
+    <t>Unik identifikator som representerer det norske fødselsnummersystemet</t>
   </si>
   <si>
     <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
@@ -672,7 +672,7 @@
     <t>Patient.identifier.value</t>
   </si>
   <si>
-    <t>The value that is unique</t>
+    <t>Fødselsnummeret (11 siffer)</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -770,13 +770,16 @@
     <t>Patient.identifier:DNR.system</t>
   </si>
   <si>
-    <t>The identification of the D-nummer</t>
+    <t>Unik identifikator som representerer det norske d-nummersystemet</t>
   </si>
   <si>
     <t>urn:oid:2.16.578.1.12.4.1.4.2</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.value</t>
+  </si>
+  <si>
+    <t>D-nummer (11 siffer)</t>
   </si>
   <si>
     <t>Patient.identifier:DNR.period</t>
@@ -995,10 +998,10 @@
     <t>Patient.address.use</t>
   </si>
   <si>
-    <t>home | work | temp | old | billing - purpose of this address</t>
-  </si>
-  <si>
-    <t>The purpose of this address.</t>
+    <t>home | temp | old</t>
+  </si>
+  <si>
+    <t>Adressetype begrenset til home, temp eller old</t>
   </si>
   <si>
     <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
@@ -1010,13 +1013,17 @@
     <t>home</t>
   </si>
   <si>
-    <t>The use of an address.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+    <t>Tillatte verdier er home, temp eller old</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use</t>
   </si>
   <si>
     <t>Address.use</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+address-use-constraint:Kun home, temp eller old er tillatt for address.use {address.use.empty() or address.use in ('home' | 'temp' | 'old')}</t>
   </si>
   <si>
     <t>unique(./use)</t>
@@ -1132,7 +1139,7 @@
 </t>
   </si>
   <si>
-    <t>District name (aka county)</t>
+    <t>Kommune</t>
   </si>
   <si>
     <t>The name of the administrative area (county).</t>
@@ -1181,7 +1188,7 @@
 </t>
   </si>
   <si>
-    <t>Coded value for municipality Norwegian kommune</t>
+    <t>Kodet verdi for kommune</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -1210,7 +1217,7 @@
 Territory</t>
   </si>
   <si>
-    <t>Sub-unit of country (abbreviations ok)</t>
+    <t>Fylkesnavn</t>
   </si>
   <si>
     <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
@@ -5195,7 +5202,7 @@
         <v>163</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>212</v>
@@ -5283,7 +5290,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>219</v>
@@ -5398,7 +5405,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>227</v>
@@ -5515,10 +5522,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5541,70 +5548,70 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF30" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5619,13 +5626,13 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5636,10 +5643,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5662,19 +5669,19 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>81</v>
@@ -5723,7 +5730,7 @@
         <v>81</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5738,16 +5745,16 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>81</v>
@@ -5755,10 +5762,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5781,19 +5788,19 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>81</v>
@@ -5842,7 +5849,7 @@
         <v>81</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5857,16 +5864,16 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>81</v>
@@ -5874,10 +5881,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5903,16 +5910,16 @@
         <v>109</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>81</v>
@@ -5940,10 +5947,10 @@
         <v>181</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>81</v>
@@ -5961,7 +5968,7 @@
         <v>81</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5976,16 +5983,16 @@
         <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>81</v>
@@ -5993,10 +6000,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6019,19 +6026,19 @@
         <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>81</v>
@@ -6080,7 +6087,7 @@
         <v>81</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6095,27 +6102,27 @@
         <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6138,19 +6145,19 @@
         <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>81</v>
@@ -6199,7 +6206,7 @@
         <v>81</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6214,7 +6221,7 @@
         <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>167</v>
@@ -6223,7 +6230,7 @@
         <v>81</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>81</v>
@@ -6231,10 +6238,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6257,19 +6264,19 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>81</v>
@@ -6318,7 +6325,7 @@
         <v>81</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6333,16 +6340,16 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>81</v>
@@ -6350,10 +6357,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6465,10 +6472,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6582,10 +6589,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6611,16 +6618,16 @@
         <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>81</v>
@@ -6633,7 +6640,7 @@
         <v>81</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>81</v>
@@ -6648,10 +6655,10 @@
         <v>181</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>81</v>
@@ -6669,7 +6676,7 @@
         <v>81</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6681,10 +6688,10 @@
         <v>81</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>101</v>
+        <v>324</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>81</v>
@@ -6693,7 +6700,7 @@
         <v>81</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>81</v>
@@ -6701,10 +6708,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6730,13 +6737,13 @@
         <v>109</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6750,7 +6757,7 @@
         <v>81</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>81</v>
@@ -6765,10 +6772,10 @@
         <v>181</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>81</v>
@@ -6786,7 +6793,7 @@
         <v>81</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -6801,7 +6808,7 @@
         <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>81</v>
@@ -6810,7 +6817,7 @@
         <v>81</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>81</v>
@@ -6818,10 +6825,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6847,16 +6854,16 @@
         <v>163</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>81</v>
@@ -6869,7 +6876,7 @@
         <v>81</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="U41" t="s" s="2">
         <v>81</v>
@@ -6905,7 +6912,7 @@
         <v>81</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -6920,7 +6927,7 @@
         <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>81</v>
@@ -6929,7 +6936,7 @@
         <v>81</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -6937,10 +6944,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6966,10 +6973,10 @@
         <v>163</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6984,7 +6991,7 @@
         <v>81</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="U42" t="s" s="2">
         <v>81</v>
@@ -7020,7 +7027,7 @@
         <v>81</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7035,7 +7042,7 @@
         <v>101</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>81</v>
@@ -7044,7 +7051,7 @@
         <v>81</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7052,14 +7059,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -7081,10 +7088,10 @@
         <v>163</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7099,7 +7106,7 @@
         <v>81</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>81</v>
@@ -7135,7 +7142,7 @@
         <v>81</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7150,7 +7157,7 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>81</v>
@@ -7159,7 +7166,7 @@
         <v>81</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7167,14 +7174,14 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -7196,13 +7203,13 @@
         <v>163</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7216,7 +7223,7 @@
         <v>81</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>81</v>
@@ -7252,7 +7259,7 @@
         <v>81</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
@@ -7267,7 +7274,7 @@
         <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>81</v>
@@ -7276,7 +7283,7 @@
         <v>81</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7284,10 +7291,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7313,10 +7320,10 @@
         <v>163</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7399,10 +7406,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7428,10 +7435,10 @@
         <v>135</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7512,13 +7519,13 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>81</v>
@@ -7540,13 +7547,13 @@
         <v>81</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7606,7 +7613,7 @@
         <v>80</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>140</v>
@@ -7629,10 +7636,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7643,7 +7650,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>81</v>
@@ -7658,10 +7665,10 @@
         <v>163</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7685,7 +7692,7 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="X48" t="s" s="2">
         <v>81</v>
@@ -7712,7 +7719,7 @@
         <v>81</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7744,14 +7751,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7773,10 +7780,10 @@
         <v>163</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7827,7 +7834,7 @@
         <v>81</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7842,7 +7849,7 @@
         <v>101</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>81</v>
@@ -7851,7 +7858,7 @@
         <v>81</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>81</v>
@@ -7859,21 +7866,21 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>81</v>
@@ -7888,10 +7895,10 @@
         <v>163</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7906,7 +7913,7 @@
         <v>81</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>81</v>
@@ -7942,7 +7949,7 @@
         <v>81</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -7957,7 +7964,7 @@
         <v>101</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>81</v>
@@ -7966,7 +7973,7 @@
         <v>81</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>81</v>
@@ -7974,10 +7981,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8003,13 +8010,13 @@
         <v>163</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8059,7 +8066,7 @@
         <v>81</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8074,7 +8081,7 @@
         <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>81</v>
@@ -8083,7 +8090,7 @@
         <v>81</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>81</v>
@@ -8091,10 +8098,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8120,14 +8127,14 @@
         <v>220</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>81</v>
@@ -8140,7 +8147,7 @@
         <v>81</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>81</v>
@@ -8176,7 +8183,7 @@
         <v>81</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8191,7 +8198,7 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>81</v>
@@ -8200,7 +8207,7 @@
         <v>81</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>81</v>
@@ -8208,10 +8215,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8237,14 +8244,14 @@
         <v>188</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>81</v>
@@ -8272,10 +8279,10 @@
         <v>193</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>81</v>
@@ -8293,7 +8300,7 @@
         <v>81</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8308,16 +8315,16 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>81</v>
@@ -8325,10 +8332,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8351,19 +8358,19 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>81</v>
@@ -8412,7 +8419,7 @@
         <v>81</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8427,7 +8434,7 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>167</v>
@@ -8436,7 +8443,7 @@
         <v>81</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>81</v>
@@ -8444,10 +8451,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8470,19 +8477,19 @@
         <v>81</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>81</v>
@@ -8531,7 +8538,7 @@
         <v>81</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8553,7 @@
         <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>167</v>
@@ -8555,7 +8562,7 @@
         <v>81</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>81</v>
@@ -8563,10 +8570,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8589,19 +8596,19 @@
         <v>81</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>81</v>
@@ -8650,7 +8657,7 @@
         <v>81</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8662,10 +8669,10 @@
         <v>81</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>167</v>
@@ -8682,10 +8689,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8797,10 +8804,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8914,14 +8921,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8943,10 +8950,10 @@
         <v>135</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>138</v>
@@ -9001,7 +9008,7 @@
         <v>81</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9033,10 +9040,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9062,14 +9069,14 @@
         <v>188</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>81</v>
@@ -9097,10 +9104,10 @@
         <v>193</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>81</v>
@@ -9118,7 +9125,7 @@
         <v>81</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9133,7 +9140,7 @@
         <v>101</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>167</v>
@@ -9142,7 +9149,7 @@
         <v>81</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>81</v>
@@ -9150,10 +9157,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9176,17 +9183,17 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>81</v>
@@ -9235,7 +9242,7 @@
         <v>81</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9250,7 +9257,7 @@
         <v>101</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>167</v>
@@ -9259,7 +9266,7 @@
         <v>81</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>81</v>
@@ -9267,10 +9274,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9293,19 +9300,19 @@
         <v>81</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>81</v>
@@ -9354,7 +9361,7 @@
         <v>81</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9369,7 +9376,7 @@
         <v>101</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>167</v>
@@ -9378,7 +9385,7 @@
         <v>81</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>81</v>
@@ -9386,10 +9393,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9412,17 +9419,17 @@
         <v>81</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>81</v>
@@ -9471,7 +9478,7 @@
         <v>81</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9486,7 +9493,7 @@
         <v>101</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>167</v>
@@ -9495,7 +9502,7 @@
         <v>81</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>81</v>
@@ -9503,10 +9510,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9532,14 +9539,14 @@
         <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>81</v>
@@ -9567,10 +9574,10 @@
         <v>181</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>81</v>
@@ -9588,7 +9595,7 @@
         <v>81</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9603,7 +9610,7 @@
         <v>101</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>167</v>
@@ -9612,7 +9619,7 @@
         <v>81</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>81</v>
@@ -9620,10 +9627,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9649,14 +9656,14 @@
         <v>228</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>81</v>
@@ -9705,7 +9712,7 @@
         <v>81</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9714,13 +9721,13 @@
         <v>89</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>167</v>
@@ -9729,7 +9736,7 @@
         <v>81</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>81</v>
@@ -9737,10 +9744,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9766,10 +9773,10 @@
         <v>220</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9820,7 +9827,7 @@
         <v>81</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -9835,7 +9842,7 @@
         <v>101</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>167</v>
@@ -9852,10 +9859,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9878,19 +9885,19 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>81</v>
@@ -9939,7 +9946,7 @@
         <v>81</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -9954,10 +9961,10 @@
         <v>101</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>81</v>
@@ -9971,10 +9978,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10086,10 +10093,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10203,14 +10210,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10232,10 +10239,10 @@
         <v>135</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N70" t="s" s="2">
         <v>138</v>
@@ -10290,7 +10297,7 @@
         <v>81</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10322,10 +10329,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10351,16 +10358,16 @@
         <v>188</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>81</v>
@@ -10409,7 +10416,7 @@
         <v>81</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>89</v>
@@ -10424,16 +10431,16 @@
         <v>101</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>81</v>
@@ -10441,10 +10448,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10467,19 +10474,19 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>81</v>
@@ -10528,7 +10535,7 @@
         <v>81</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10543,16 +10550,16 @@
         <v>101</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>81</v>
@@ -10560,14 +10567,14 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
@@ -10586,16 +10593,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10645,7 +10652,7 @@
         <v>81</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10660,7 +10667,7 @@
         <v>101</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>167</v>
@@ -10669,7 +10676,7 @@
         <v>81</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>81</v>
@@ -10677,10 +10684,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10706,16 +10713,16 @@
         <v>228</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="P74" t="s" s="2">
         <v>81</v>
@@ -10764,7 +10771,7 @@
         <v>81</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -10779,10 +10786,10 @@
         <v>101</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>81</v>
@@ -10796,10 +10803,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10822,19 +10829,19 @@
         <v>90</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>81</v>
@@ -10883,7 +10890,7 @@
         <v>81</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -10898,7 +10905,7 @@
         <v>101</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>167</v>
@@ -10915,10 +10922,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11030,10 +11037,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11147,14 +11154,14 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11176,10 +11183,10 @@
         <v>135</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>138</v>
@@ -11234,7 +11241,7 @@
         <v>81</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11266,10 +11273,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11292,16 +11299,16 @@
         <v>90</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11351,7 +11358,7 @@
         <v>81</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>89</v>
@@ -11375,7 +11382,7 @@
         <v>81</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>81</v>
@@ -11383,10 +11390,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11412,10 +11419,10 @@
         <v>109</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11445,28 +11452,28 @@
         <v>181</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>549</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>547</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11481,7 +11488,7 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>167</v>
